--- a/statewise_taxable_summary.xlsx
+++ b/statewise_taxable_summary.xlsx
@@ -5,17 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anndy\OneDrive\Desktop\gst_1168621_3_2025_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Meesho Sale calculator Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E293D-CBCA-4FAB-A998-CA345018350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B8DA1A-4965-438A-B3CD-27B03CF8D364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -156,12 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,19 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,204 +490,210 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>8793.7499998000003</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>6168.7500001999997</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>5600.8928569999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>4257.1428569999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>3187.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>2917.8571428999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>2260.7142856</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>2233.9285713999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>2157.1428569999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>2000.8928570999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>1607.1428570999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>1549.1071428</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>1495.5357142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>1424.1071429000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>1327.6785714</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>1130.3571428</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>1041.0714286</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>987.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>892.85714280000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>608.92857140000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>550.89285710000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>548.2142857</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>541.9642857</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>516.9642857</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>494.64285710000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <f>SUM(B2:B26)</f>
+        <v>54295.535713299992</v>
       </c>
     </row>
   </sheetData>
